--- a/HoursReport-2024-07-01_2024-07-31.xlsx
+++ b/HoursReport-2024-07-01_2024-07-31.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Timeline Report (MineField Reporter)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="141">
+  <si>
+    <t xml:space="preserve">Timeline Report (IQMessenger)</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -33,43 +33,463 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrew Daskaliuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MineField Reporter</t>
+    <t xml:space="preserve">Andrew Bulat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQMessenger</t>
   </si>
   <si>
     <t xml:space="preserve">8:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Work on application permissions checker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work on application localization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work on data encoding and decoding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work on data encoding and decoding with asynchronous encryption.</t>
+    <t xml:space="preserve">Working on the issues OP-2163, IQ-12484, IQ-13190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issues OP-2163, IQ-12484, IQ-13194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on the issues OP-2163, IQ-12484, IQ-13197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">40:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrii Voitiuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on IQ-12484 and OP-2147 issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on IQ-12484, OP-2162 and OP-2147 issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andriy Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the background operations of the app during the location getting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the background logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the background operations of the location getting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the background operations, helped with testing, added a timestamp to device events.</t>
+  </si>
+  <si>
     <t xml:space="preserve">40:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksii Shmukler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate qr from public key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encrypt public key for qr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login user after qr scanned</t>
+    <t xml:space="preserve">Igor Vojtyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihor Havryliuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked with issue ISA-505: Integrate Smartapp into the Cisco Spaces system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilona Panchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile page - work with dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care App - grid with buttons on the screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange - SSL screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care App screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iryna Svitko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonid Rozenblyum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational meeting. PR review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Voronov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13136 Migrate Scenario Groups permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleg Yavorski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update ABTO libraries for SIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change logic of GPS location parser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy changes in the App Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandr Sokolov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on https://iqmessenger.atlassian.net/browse/IQ-5694, https://iqmessenger.atlassian.net/browse/IQ-12837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on https://iqmessenger.atlassian.net/browse/IQ-5694, https://iqmessenger.atlassian.net/browse/IQ-13147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on https://iqmessenger.atlassian.net/browse/IQ-5694, https://iqmessenger.atlassian.net/browse/IQ-13176, https://iqmessenger.atlassian.net/browse/IQ-13195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on https://iqmessenger.atlassian.net/browse/IQ-5694, https://iqmessenger.atlassian.net/browse/IQ-13176, https://iqmessenger.atlassian.net/browse/IQ-13174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandr Voroshchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13188 · Add message for empty report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13174 · Fix display name who fired the scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13196 · Update cluster screen on Server Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petro Alekseev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-12679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serhii Pityk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position autogenerated message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support ETA from SmartApp to EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split SmartApp iOS system events and user defined events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmartApp Securitas (Stanley) RTLS Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTMF in combination in combination with the dialback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to test SmartApp Securitas (Stanley) RTLS Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serhii Stroinov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13069 Mobotix microphone and speaker control
+	- Fixed remarks
+	- Prepared test process docs and envirement
+IQ-13054 Integration: Securitas MobileView interface
+	- A process of finalyzed of develop.
+	- Prepared PRs for Securitas intagration and Securitas Stub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13054 Integration: Securitas MobileView interface
+	- Creating RP
+	- Fix tests for PR
+	- Fix Sonar issues
+	- Fix description for IQ-13055 System requirements: Securitas MobileView task.
+	- Demo for reviewes
+	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13054 Integration: Securitas MobileView interface
+	- Fix some issues
+	- Checked Securitas positioning system
+IQ-13192 Inclusion of text field in SIA-DC09 auto-generated message	
+	- Created the functional
+	- Testing on VM#74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13192 Inclusion of text field in SIA-DC09 auto-generated message	
+	- Fix some issues
+IQ-11869 Integration: Cisco Spaces	
+	- Found all DevicePresenceEventType &amp; UserPresenceEventType
+	- Discussed with Yaroslav Kvasetskiy &amp; Yaroslav Zakharuk
+	- Creating red icon of the Cisco Spaces integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13192 Inclusion of text field in SIA-DC09 auto-generated message	
+	- Fix remarks
+	- Merged PR
+IQ-11869 Integration: Cisco Spaces	
+	- Creating hash &amp; initial hash
+	- Creating Cisco Spaces Manager &amp; Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislav Slobodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issues IQ-5694, IQ-13016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issues IQ-5694, IQ-13136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepan Baranov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13147: Update communication protocol for EC integration and IQM; was discussing about Aveva System Platforms	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13147: Update communication protocol for EC integration and IQM - was fixing remarks, was fixing bug and wrote tests; IQ-13044: Integration: Aveva System Platform - was diving into the COM architecture once again	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13147: Update communication protocol for EC integration and IQM - was fixing remarks; IQ-13044: Integration: Aveva System Platform - was diving into the COM architecture once again	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13147: Update communication protocol for EC integration and IQM - was fixing remarks; IQ-13044: Integration: Aveva System Platform - was diving into the COM architecture once again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13137: Eurocom CQ-NET interface Wander detection and prevention support - was fixing small remarks and testing it with rammy	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanya Belaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13084 GEA static groups support for input interfaces
+OP-2147 QA preparations to release 14.0.0
+IQ-12837 Migrate EmergencyConsole to IQM
+IQ-12926 Error 500 Group wildcard % search
+IQ-13069 Mobotix microphone and speaker control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13084 GEA static groups support for input interfaces
+OP-2162 Analyzing the results of night functional tests
+IQ-13106 Filter enabled/disabled users in Users screen
+IQ-13058 Add user enabled property to User edit
+IQ-12926 Error 500 Group wildcard % search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13106 Filter enabled/disabled users in Users screen IQ-13084 GEA static groups support for input interfaces IQ-13058 Add user enabled property to User edit OP-2162 Analyzing the results of night functional tests OP-2192 Mentorship: new team member: Bohdanova Zoia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13065 Call&amp;IVR record message
+IQ-13084 GEA static groups support for input interfaces
+OP-2192 Mentorship: new team member: Bohdanova Zoia
+IQ-13192 Inclusion of text field in SIA-DC09 auto-generated message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlad Kuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-605: Disable server addresses when using SSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-620: Accordis integration does not work, info is not displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICA-110: Handled ViewPager edge case on screen initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICA-110: Finalized all remarks for review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-622: Implemented DTMF SIP command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a final SIP DTMF layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volodymyr Stankov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtmf code on device item edit screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtmf code on wildcard edit screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtmf code on location add/edit screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volodymyr Sydorchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13079: Align v2 endpoints with v1 endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13128: Decide on naming and apply the solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13107: Delete old RestAPI module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaroslav Kvasetskiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-5534
+Working on issue IQ-13068
+Working on issue IQ-13069
+Working on issue IQ-12484
+Working on issue IQ-13164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-5534
+Working on issue IQ-12484
+Working on issue IQ-13164
+Working on issue IQ-5536
+Working on issue IQ-13054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-5534
+Working on issue IQ-12484
+Working on issue IQ-13164
+Working on issue IQ-5536
+Working on issue IQ-11869
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-5534
+Working on issue IQ-12484
+Working on issue IQ-11869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on issue IQ-5534
+Working on issue IQ-12484
+Working on issue IQ-13065
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaroslav Zakharuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRs review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement SCIM support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix chrome driver image build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascom Nursecall issue R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yehorov Yurii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISI-503 Empty contacts table cell when contact doesn't have contact name
+ICA-91 SIP as a Feature
+ICA-110 Redesign the ViewPager business logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICA-91 · SIP as a Feature
+ISA-609 · Log out disabled user
+IQ-13058 · Add user enabled property to User edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-605 Disable server addresses when using SSO
+ICA-110 · Redesign the ViewPager business logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-620 · Accordis integration does not work, info is not displayed
+ISA-609 · Log out disabled user
+IQ-13058 · Add user enabled property to User edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-5694 Meeting
+IQ-13058 · Add user enabled property to User edit
+ISI-506 · Log out disabled user
+ISA-609 · Log out disabled user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuliia Koniakova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on issue IQ-12928.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoia Bohdanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13106 · Filter enabled/disabled users in Users screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ - 13058 Add user enabled property to User edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13106 Filter enabled/disabled users in Users screen
+IQ-12926 Error 500 Group wildcard % search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ-13065 Call&amp;IVR record message</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date</t>
@@ -81,7 +501,7 @@
     <t xml:space="preserve">Hours Total</t>
   </si>
   <si>
-    <t xml:space="preserve">80:00</t>
+    <t xml:space="preserve">886:25</t>
   </si>
 </sst>
 </file>
@@ -89,7 +509,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -131,6 +551,246 @@
       <b/>
       <sz val="13"/>
       <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -204,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,30 +946,988 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -324,11 +1942,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="234.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -381,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -398,10 +2016,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -432,18 +2050,18 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +2069,7 @@
         <v>45474</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -460,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -468,7 +2086,7 @@
         <v>45475</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -477,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +2103,7 @@
         <v>45476</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -494,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -502,13 +2120,13 @@
         <v>45477</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -519,7 +2137,7 @@
         <v>45478</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -533,34 +2151,2436 @@
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="43">
+        <v>45474</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="44">
+      <c r="A19" s="46">
+        <v>45475</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="49">
+        <v>45476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52">
+        <v>45477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="55">
+        <v>45478</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="60">
         <v>45474</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="63">
+        <v>45475</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="66">
+        <v>45476</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="69">
+        <v>45477</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="72">
+        <v>45478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="77">
+        <v>45474</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="80">
+        <v>45475</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="83">
+        <v>45476</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="86">
+        <v>45477</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="94">
+        <v>45474</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="97">
+        <v>45474</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="100">
+        <v>45475</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="103">
+        <v>45476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="108">
+        <v>45474</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="111">
+        <v>45475</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="114">
+        <v>45476</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="117">
+        <v>45477</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="120">
+        <v>45478</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="125">
+        <v>45478</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="130">
+        <v>45474</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="133">
+        <v>45475</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="136">
+        <v>45476</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="141">
+        <v>45475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="144">
+        <v>45476</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="147">
+        <v>45477</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="150">
+        <v>45478</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="155">
+        <v>45474</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="158">
+        <v>45475</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="161">
+        <v>45476</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="164">
+        <v>45477</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="167">
+        <v>45478</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="172">
+        <v>45474</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="175">
+        <v>45475</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="178">
+        <v>45476</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="181">
+        <v>45476</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="184">
+        <v>45477</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="187">
+        <v>45477</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="190">
+        <v>45478</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="48">
+      <c r="E79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="193">
+        <v>45478</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="198">
+        <v>45475</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="201">
+        <v>45476</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="204">
+        <v>45477</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="207">
+        <v>45478</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="208" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="209" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="212">
+        <v>45474</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="215">
+        <v>45474</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="218">
+        <v>45474</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="221">
+        <v>45475</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="224">
+        <v>45475</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="227">
+        <v>45476</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="230">
+        <v>45476</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="233">
+        <v>45476</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="236">
+        <v>45477</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="239">
+        <v>45477</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="242">
+        <v>45478</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="245">
+        <v>45478</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="250">
+        <v>45474</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="253">
+        <v>45475</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="256">
+        <v>45476</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="259">
+        <v>45477</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="262">
+        <v>45478</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="267">
+        <v>45474</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="270">
+        <v>45475</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="273">
+        <v>45476</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="276">
+        <v>45477</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="279">
+        <v>45478</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="280" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="281" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="284">
+        <v>45474</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="287">
+        <v>45475</v>
+      </c>
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="290">
+        <v>45476</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="293">
+        <v>45477</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="296">
+        <v>45478</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="297" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="298" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="301">
+        <v>45475</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="304">
+        <v>45476</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="307">
+        <v>45477</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="310">
+        <v>45478</v>
+      </c>
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="312" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="315">
+        <v>45474</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="318">
+        <v>45474</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="321">
+        <v>45475</v>
+      </c>
+      <c r="B132" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="324">
+        <v>45476</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="327">
+        <v>45477</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="330">
+        <v>45478</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="331" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="332" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="335">
+        <v>45474</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="338">
+        <v>45476</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="341">
+        <v>45477</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="344">
+        <v>45478</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="345" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="346" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="349">
+        <v>45474</v>
+      </c>
+      <c r="B144" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="352">
+        <v>45475</v>
+      </c>
+      <c r="B145" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="355">
+        <v>45476</v>
+      </c>
+      <c r="B146" t="s">
+        <v>104</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="358">
+        <v>45476</v>
+      </c>
+      <c r="B147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="361">
+        <v>45477</v>
+      </c>
+      <c r="B148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="364">
+        <v>45477</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>60</v>
+      </c>
+      <c r="E149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="367">
+        <v>45478</v>
+      </c>
+      <c r="B150" t="s">
+        <v>104</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="370">
+        <v>45478</v>
+      </c>
+      <c r="B151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="373">
+        <v>45478</v>
+      </c>
+      <c r="B152" t="s">
+        <v>104</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="374" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="375" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="378">
+        <v>45474</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="381">
+        <v>45475</v>
+      </c>
+      <c r="B156" t="s">
+        <v>108</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="384">
+        <v>45476</v>
+      </c>
+      <c r="B157" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="387">
+        <v>45477</v>
+      </c>
+      <c r="B158" t="s">
+        <v>108</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="390">
+        <v>45478</v>
+      </c>
+      <c r="B159" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="391" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="392" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="395">
+        <v>45474</v>
+      </c>
+      <c r="B162" t="s">
+        <v>114</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="398">
+        <v>45474</v>
+      </c>
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>115</v>
+      </c>
+      <c r="E163" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="401">
+        <v>45474</v>
+      </c>
+      <c r="B164" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="404">
+        <v>45475</v>
+      </c>
+      <c r="B165" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="407">
+        <v>45475</v>
+      </c>
+      <c r="B166" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="410">
+        <v>45476</v>
+      </c>
+      <c r="B167" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="413">
+        <v>45476</v>
+      </c>
+      <c r="B168" t="s">
+        <v>114</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="416">
+        <v>45477</v>
+      </c>
+      <c r="B169" t="s">
+        <v>114</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>115</v>
+      </c>
+      <c r="E169" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="419">
+        <v>45477</v>
+      </c>
+      <c r="B170" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>121</v>
+      </c>
+      <c r="E170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="422">
+        <v>45478</v>
+      </c>
+      <c r="B171" t="s">
+        <v>114</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="425">
+        <v>45478</v>
+      </c>
+      <c r="B172" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="426" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="427" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="430">
+        <v>45474</v>
+      </c>
+      <c r="B175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="433">
+        <v>45475</v>
+      </c>
+      <c r="B176" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="436">
+        <v>45476</v>
+      </c>
+      <c r="B177" t="s">
+        <v>123</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="439">
+        <v>45477</v>
+      </c>
+      <c r="B178" t="s">
+        <v>123</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="442">
+        <v>45478</v>
+      </c>
+      <c r="B179" t="s">
+        <v>123</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="443" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="444" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="447">
+        <v>45474</v>
+      </c>
+      <c r="B182" t="s">
+        <v>129</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="450">
+        <v>45475</v>
+      </c>
+      <c r="B183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="453">
+        <v>45476</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="456">
+        <v>45477</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="459">
+        <v>45478</v>
+      </c>
+      <c r="B186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="460" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="461" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="464">
+        <v>45474</v>
+      </c>
+      <c r="B189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="467">
+        <v>45475</v>
+      </c>
+      <c r="B190" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="470">
+        <v>45476</v>
+      </c>
+      <c r="B191" t="s">
+        <v>132</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="473">
+        <v>45477</v>
+      </c>
+      <c r="B192" t="s">
+        <v>132</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="476">
+        <v>45478</v>
+      </c>
+      <c r="B193" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="477" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="478" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="479" t="s">
+        <v>137</v>
+      </c>
+      <c r="B197" s="482">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="483" t="s">
+        <v>138</v>
+      </c>
+      <c r="B198" s="486">
         <v>45504</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>22</v>
+    <row r="199">
+      <c r="A199" s="487" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" s="488" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
